--- a/Examples/rankine/rankine_model.xlsx
+++ b/Examples/rankine/rankine_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Termoeconomia\ExIOLab\Examples\rankine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Termoeconomia\TaesLab\Examples\rankine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651C0C79-4622-4118-B3F1-2F826403312B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBEB55E-6DDC-42BC-A64A-9677141B5812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="345" windowWidth="18135" windowHeight="12525" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,21 @@
     <sheet name="WasteAllocation" sheetId="5" r:id="rId6"/>
     <sheet name="Format" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -60,9 +71,6 @@
     <t>B4</t>
   </si>
   <si>
-    <t>B5</t>
-  </si>
-  <si>
     <t>Boiler</t>
   </si>
   <si>
@@ -162,15 +170,6 @@
     <t>DIAGNOSIS</t>
   </si>
   <si>
-    <t>B2-B5</t>
-  </si>
-  <si>
-    <t>B2-B3</t>
-  </si>
-  <si>
-    <t>B5-B4</t>
-  </si>
-  <si>
     <t>DISSIPATIVE</t>
   </si>
   <si>
@@ -216,7 +215,19 @@
     <t>WN</t>
   </si>
   <si>
-    <t>WC+(B3-B4)</t>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B1-B4</t>
+  </si>
+  <si>
+    <t>B1-B2</t>
+  </si>
+  <si>
+    <t>B4-B3</t>
+  </si>
+  <si>
+    <t>WC+(B2-B3)</t>
   </si>
 </sst>
 </file>
@@ -284,10 +295,10 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -315,61 +326,67 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>447675</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>438150</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="0">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D922021-47A3-DBDD-7E64-E63137975DF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="447675" y="0"/>
+          <a:ext cx="6686550" cy="5495925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
-                <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -635,48 +652,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.15" shapeId="1025" r:id="rId3">
-          <objectPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>447675</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>438150</xdr:colOff>
-                <xdr:row>30</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Visio.Drawing.15" shapeId="1025" r:id="rId3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -700,61 +690,61 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -766,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,87 +771,87 @@
         <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -892,7 +882,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,101 +898,101 @@
         <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1027,7 +1017,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="B11" sqref="B11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,12 +1042,12 @@
         <v>4</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2">
         <v>34833</v>
@@ -1080,7 +1070,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="B3" s="2">
         <v>13362</v>
@@ -1103,7 +1093,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>1197</v>
@@ -1126,7 +1116,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>22.01</v>
@@ -1149,7 +1139,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>121.5</v>
@@ -1172,7 +1162,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B7" s="2">
         <v>10435</v>
@@ -1195,7 +1185,7 @@
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B8" s="2">
         <v>104.4</v>
@@ -1218,7 +1208,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B9" s="2">
         <v>122.4</v>
@@ -1241,7 +1231,7 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B10" s="2">
         <v>10000</v>
@@ -1264,25 +1254,31 @@
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B11" s="2">
-        <v>1175</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1187</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1219</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1483</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1182</v>
-      </c>
-      <c r="G11">
-        <v>1175</v>
+        <f>B4-B5</f>
+        <v>1174.99</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" ref="C11:G11" si="0">C4-C5</f>
+        <v>1187.76</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>1218.45</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>1482.66</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>1181.73</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>1174.99</v>
       </c>
     </row>
   </sheetData>
@@ -1305,12 +1301,12 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>0.9</v>
@@ -1318,7 +1314,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>0.1</v>
@@ -1333,7 +1329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1350,18 +1346,18 @@
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -1370,12 +1366,12 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -1384,12 +1380,12 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -1398,12 +1394,12 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -1412,12 +1408,12 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -1426,12 +1422,12 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -1440,7 +1436,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/rankine/rankine_model.xlsx
+++ b/Examples/rankine/rankine_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Termoeconomia\TaesLab\Examples\rankine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\rankine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBEB55E-6DDC-42BC-A64A-9677141B5812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA50D7D6-EB37-4976-B43F-E6BA48690336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1965" yWindow="435" windowWidth="25740" windowHeight="14700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="1" r:id="rId1"/>
@@ -756,7 +756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -881,14 +881,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
   </cols>
@@ -898,7 +898,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>20</v>
@@ -907,7 +907,7 @@
         <v>21</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -915,7 +915,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>53</v>
@@ -924,7 +924,7 @@
         <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -932,7 +932,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>59</v>
@@ -941,7 +941,7 @@
         <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -949,7 +949,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>54</v>
@@ -958,7 +958,7 @@
         <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -966,7 +966,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>51</v>
@@ -975,7 +975,7 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -983,7 +983,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
         <v>61</v>
@@ -992,7 +992,7 @@
         <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1004,7 +1004,7 @@
           <x14:formula1>
             <xm:f>Validate!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E1:E1048576</xm:sqref>
+          <xm:sqref>E7:E1048576 B1:B6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
